--- a/NHQ Screener Roster.xlsx
+++ b/NHQ Screener Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasminewu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasminewu/Documents/RC Screener List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADC3B20-CB22-E443-AD2A-C0E7B743BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982AEAB4-BEF7-954E-B1B4-E15E767B3F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
+    <workbookView xWindow="8440" yWindow="460" windowWidth="20360" windowHeight="16320" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener Team Roster" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Screener</t>
   </si>
@@ -57,9 +57,6 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Xenia (Xanthipi) Daskalopoulou </t>
-  </si>
-  <si>
     <t>Reshma Menezes</t>
   </si>
   <si>
@@ -90,18 +87,12 @@
     <t>Younos Gad</t>
   </si>
   <si>
-    <t>Jawanza Rodgers</t>
-  </si>
-  <si>
     <t>Kate Esquivel</t>
   </si>
   <si>
     <t>Brittany Frasier</t>
   </si>
   <si>
-    <t>Guylandsky Jean-Gilles</t>
-  </si>
-  <si>
     <t>Danielle Spears</t>
   </si>
   <si>
@@ -126,20 +117,32 @@
     <t>M</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>Jake Taylor</t>
   </si>
   <si>
     <t>Bella Jimenez</t>
+  </si>
+  <si>
+    <t>Maia Dillon</t>
+  </si>
+  <si>
+    <t>Maria Berdeja</t>
+  </si>
+  <si>
+    <t>Elizabeth Ludwig</t>
+  </si>
+  <si>
+    <t>Guy Jean-Gilles</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +173,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,11 +202,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -198,22 +239,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -225,6 +273,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -284,6 +365,7 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -324,46 +406,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -386,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:F31" xr:uid="{B3A1DBBC-694D-4F6B-96ED-6E7157C36A78}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:F32" xr:uid="{B3A1DBBC-694D-4F6B-96ED-6E7157C36A78}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -396,8 +438,8 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{B0557BA6-B027-4977-BBD1-B042126DF302}" name="Screener" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0260456F-1600-4E73-B050-362A3C6F2FE9}" name="Available to screen" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B0557BA6-B027-4977-BBD1-B042126DF302}" name="Screener" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0260456F-1600-4E73-B050-362A3C6F2FE9}" name="Available to screen" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{E69427F7-D8A8-4E27-8F33-D4958F20BDBD}" name="Limit" dataDxfId="7"/>
     <tableColumn id="20" xr3:uid="{8D990157-C516-4C46-9FD4-F273EEF57BE4}" name="Limit On" dataDxfId="6"/>
     <tableColumn id="21" xr3:uid="{04279487-8640-3947-BBA4-32271610025F}" name="No List Days" dataDxfId="5"/>
@@ -704,19 +746,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933474FA-B2B4-4F19-B5E2-9DD4D3F93838}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -729,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -743,16 +786,16 @@
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -763,77 +806,76 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
@@ -847,36 +889,33 @@
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
+      <c r="B11" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -886,100 +925,108 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
       <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
@@ -987,49 +1034,97 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -1039,12 +1134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3FCA21861C8F74F956EFFCDB866FED2" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b11837769606689220299803b06f8af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88685206-2b55-4b42-9981-541f15947df3" xmlns:ns3="2cff5d5b-ac30-4a5a-8e61-18baf50d0d29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d93742b3868fc19a1cb4125e4e81f8c" ns2:_="" ns3:_="">
     <xsd:import namespace="88685206-2b55-4b42-9981-541f15947df3"/>
@@ -1223,7 +1312,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1232,16 +1321,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D8B162-8B00-4E23-BAC3-6BFCCDF05BBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1260,10 +1346,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NHQ Screener Roster.xlsx
+++ b/NHQ Screener Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasminewu/Documents/RC Screener List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982AEAB4-BEF7-954E-B1B4-E15E767B3F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C816BA-64E0-594D-A17B-EE20DF61F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="460" windowWidth="20360" windowHeight="16320" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
+    <workbookView xWindow="12940" yWindow="460" windowWidth="15860" windowHeight="16320" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener Team Roster" sheetId="1" r:id="rId1"/>
@@ -81,24 +81,15 @@
     <t>Karen Searle</t>
   </si>
   <si>
-    <t>Jacqueline Mah</t>
-  </si>
-  <si>
     <t>Younos Gad</t>
   </si>
   <si>
     <t>Kate Esquivel</t>
   </si>
   <si>
-    <t>Brittany Frasier</t>
-  </si>
-  <si>
     <t>Danielle Spears</t>
   </si>
   <si>
-    <t>Nandhini Arumugam</t>
-  </si>
-  <si>
     <t>Kimberly Echeverri</t>
   </si>
   <si>
@@ -136,6 +127,15 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Annie Liao</t>
+  </si>
+  <si>
+    <t>Anchita Mathur</t>
+  </si>
+  <si>
+    <t>Denair Battle</t>
   </si>
 </sst>
 </file>
@@ -259,40 +259,7 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -365,6 +332,32 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -428,7 +421,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F32" xr:uid="{B3A1DBBC-694D-4F6B-96ED-6E7157C36A78}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -438,12 +431,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{B0557BA6-B027-4977-BBD1-B042126DF302}" name="Screener" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0260456F-1600-4E73-B050-362A3C6F2FE9}" name="Available to screen" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{E69427F7-D8A8-4E27-8F33-D4958F20BDBD}" name="Limit" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{8D990157-C516-4C46-9FD4-F273EEF57BE4}" name="Limit On" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{04279487-8640-3947-BBA4-32271610025F}" name="No List Days" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{70156C69-4EF2-44F1-A5F8-A6DC043EB9C9}" name="Background Checks" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B0557BA6-B027-4977-BBD1-B042126DF302}" name="Screener" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0260456F-1600-4E73-B050-362A3C6F2FE9}" name="Available to screen" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E69427F7-D8A8-4E27-8F33-D4958F20BDBD}" name="Limit" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{8D990157-C516-4C46-9FD4-F273EEF57BE4}" name="Limit On" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{04279487-8640-3947-BBA4-32271610025F}" name="No List Days" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{70156C69-4EF2-44F1-A5F8-A6DC043EB9C9}" name="Background Checks" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933474FA-B2B4-4F19-B5E2-9DD4D3F93838}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -772,13 +765,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -786,7 +779,7 @@
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -795,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -813,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -827,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -844,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -867,83 +860,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -951,13 +947,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -965,7 +961,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>4</v>
@@ -978,55 +974,59 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
         <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
@@ -1034,10 +1034,16 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
         <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>4</v>
@@ -1045,10 +1051,10 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -1062,7 +1068,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>4</v>
@@ -1079,10 +1088,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -1116,12 +1128,12 @@
     <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1134,6 +1146,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3FCA21861C8F74F956EFFCDB866FED2" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b11837769606689220299803b06f8af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88685206-2b55-4b42-9981-541f15947df3" xmlns:ns3="2cff5d5b-ac30-4a5a-8e61-18baf50d0d29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d93742b3868fc19a1cb4125e4e81f8c" ns2:_="" ns3:_="">
     <xsd:import namespace="88685206-2b55-4b42-9981-541f15947df3"/>
@@ -1312,22 +1339,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D8B162-8B00-4E23-BAC3-6BFCCDF05BBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1344,21 +1373,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NHQ Screener Roster.xlsx
+++ b/NHQ Screener Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasminewu/Documents/RC Screener List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C816BA-64E0-594D-A17B-EE20DF61F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968610A5-40EC-B34F-ACA0-FF576E25D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12940" yWindow="460" windowWidth="15860" windowHeight="16320" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
   </bookViews>
@@ -260,20 +260,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -399,6 +385,20 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F32" xr:uid="{B3A1DBBC-694D-4F6B-96ED-6E7157C36A78}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -431,12 +431,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{B0557BA6-B027-4977-BBD1-B042126DF302}" name="Screener" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0260456F-1600-4E73-B050-362A3C6F2FE9}" name="Available to screen" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{E69427F7-D8A8-4E27-8F33-D4958F20BDBD}" name="Limit" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{8D990157-C516-4C46-9FD4-F273EEF57BE4}" name="Limit On" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{04279487-8640-3947-BBA4-32271610025F}" name="No List Days" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{70156C69-4EF2-44F1-A5F8-A6DC043EB9C9}" name="Background Checks" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B0557BA6-B027-4977-BBD1-B042126DF302}" name="Screener" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0260456F-1600-4E73-B050-362A3C6F2FE9}" name="Available to screen" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E69427F7-D8A8-4E27-8F33-D4958F20BDBD}" name="Limit" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{8D990157-C516-4C46-9FD4-F273EEF57BE4}" name="Limit On" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{04279487-8640-3947-BBA4-32271610025F}" name="No List Days" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{70156C69-4EF2-44F1-A5F8-A6DC043EB9C9}" name="Background Checks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933474FA-B2B4-4F19-B5E2-9DD4D3F93838}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -1091,10 +1091,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -1128,12 +1128,12 @@
     <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1146,21 +1146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3FCA21861C8F74F956EFFCDB866FED2" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b11837769606689220299803b06f8af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88685206-2b55-4b42-9981-541f15947df3" xmlns:ns3="2cff5d5b-ac30-4a5a-8e61-18baf50d0d29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d93742b3868fc19a1cb4125e4e81f8c" ns2:_="" ns3:_="">
     <xsd:import namespace="88685206-2b55-4b42-9981-541f15947df3"/>
@@ -1339,24 +1324,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D8B162-8B00-4E23-BAC3-6BFCCDF05BBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1373,4 +1356,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NHQ Screener Roster.xlsx
+++ b/NHQ Screener Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasminewu/Documents/RC Screener List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968610A5-40EC-B34F-ACA0-FF576E25D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5526148-B79C-2447-AF06-DD016F690552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="460" windowWidth="15860" windowHeight="16320" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
+    <workbookView xWindow="15660" yWindow="500" windowWidth="13140" windowHeight="16380" xr2:uid="{0F5D9879-7FBA-462D-AB8D-B17FA4815614}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener Team Roster" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Screener</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Background Checks</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -57,15 +54,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Reshma Menezes</t>
-  </si>
-  <si>
-    <t>Manuel Tovilla</t>
-  </si>
-  <si>
-    <t>Wajiha Khan</t>
-  </si>
-  <si>
     <t xml:space="preserve">No </t>
   </si>
   <si>
@@ -78,18 +66,12 @@
     <t>Karina Santiago</t>
   </si>
   <si>
-    <t>Karen Searle</t>
-  </si>
-  <si>
     <t>Younos Gad</t>
   </si>
   <si>
     <t>Kate Esquivel</t>
   </si>
   <si>
-    <t>Danielle Spears</t>
-  </si>
-  <si>
     <t>Kimberly Echeverri</t>
   </si>
   <si>
@@ -99,21 +81,12 @@
     <t>Limit On</t>
   </si>
   <si>
-    <t>week</t>
-  </si>
-  <si>
     <t>No List Days</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Jake Taylor</t>
-  </si>
-  <si>
-    <t>Bella Jimenez</t>
-  </si>
-  <si>
     <t>Maia Dillon</t>
   </si>
   <si>
@@ -126,16 +99,31 @@
     <t>Guy Jean-Gilles</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Annie Liao</t>
   </si>
   <si>
     <t>Anchita Mathur</t>
   </si>
   <si>
-    <t>Denair Battle</t>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Cherelle Maddox</t>
+  </si>
+  <si>
+    <t>Deepti Singh</t>
+  </si>
+  <si>
+    <t>Melissa Gore</t>
+  </si>
+  <si>
+    <t>Dilaila Inrio</t>
+  </si>
+  <si>
+    <t>Passha Burns</t>
+  </si>
+  <si>
+    <t>Shay Williams</t>
   </si>
 </sst>
 </file>
@@ -421,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F32" xr:uid="{B3A1DBBC-694D-4F6B-96ED-6E7157C36A78}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{697A9486-2C0F-4ADF-BA75-6B599FBD4847}" name="Table4" displayName="Table4" ref="A1:F29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F29" xr:uid="{B3A1DBBC-694D-4F6B-96ED-6E7157C36A78}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -739,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933474FA-B2B4-4F19-B5E2-9DD4D3F93838}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -765,317 +753,281 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>4</v>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
@@ -1083,56 +1035,36 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B32">
+  <conditionalFormatting sqref="B2:B29">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
@@ -1146,6 +1078,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3FCA21861C8F74F956EFFCDB866FED2" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b11837769606689220299803b06f8af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88685206-2b55-4b42-9981-541f15947df3" xmlns:ns3="2cff5d5b-ac30-4a5a-8e61-18baf50d0d29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d93742b3868fc19a1cb4125e4e81f8c" ns2:_="" ns3:_="">
     <xsd:import namespace="88685206-2b55-4b42-9981-541f15947df3"/>
@@ -1324,22 +1271,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D8B162-8B00-4E23-BAC3-6BFCCDF05BBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1356,21 +1305,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5D4E7-6755-4AC2-9717-B7C974921374}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE430752-597C-40FD-B097-8D027CCE7EE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>